--- a/biocharStability/database/biochar_q10_dataset_2022-05-27.xlsx
+++ b/biocharStability/database/biochar_q10_dataset_2022-05-27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\biocharStability\biocharStability\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C51AD3-80A1-47CF-B321-AF060FB5AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EF296-9E92-4027-8FC7-1467A36847AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q10" sheetId="1" r:id="rId1"/>
@@ -1481,16 +1481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>115660</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>572860</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>170633</xdr:rowOff>
+      <xdr:rowOff>164918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>215536</xdr:colOff>
+      <xdr:colOff>59326</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>125459</xdr:rowOff>
+      <xdr:rowOff>117839</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
